--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,7 +132,13 @@
     <t>1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Bulkamid</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Deflux</t>
@@ -475,10 +481,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +492,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +506,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
+++ b/fhir/CodeSystem-BulkingMaterialeDUGA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,13 +132,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Bulkamid</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Deflux</t>
@@ -481,10 +475,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -492,13 +486,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -506,13 +500,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
